--- a/InputData/elec/SoFCtMbCtPR/Shr of Fwd Costs that Must be Covered to be Prevent Retirement.xlsx
+++ b/InputData/elec/SoFCtMbCtPR/Shr of Fwd Costs that Must be Covered to be Prevent Retirement.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\SoFCtMbCtPR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\elec\SoFCtMbCtPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA506D96-49CB-4C13-BA28-ACBBE8A2DD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E8ED8C-1442-447F-8C6B-059D378D1FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{5E78EF81-321F-43F5-B343-4E83A6575A8A}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="23430" windowHeight="15060" activeTab="1" xr2:uid="{5E78EF81-321F-43F5-B343-4E83A6575A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="SoFCtMbCtPR " sheetId="2" r:id="rId2"/>
+    <sheet name="SoFCtMbCtPR" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -493,10 +493,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DA106A-E484-4E2B-B3F9-91B326CF3E2A}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -521,13 +522,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABB53E3-B52E-4F21-A58E-08755890D033}">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/InputData/elec/SoFCtMbCtPR/Shr of Fwd Costs that Must be Covered to be Prevent Retirement.xlsx
+++ b/InputData/elec/SoFCtMbCtPR/Shr of Fwd Costs that Must be Covered to be Prevent Retirement.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rachel Goldstein\Dropbox (Energy Innovation)\Desktop\Vensim files from GitHub\EPS EU\InputData\elec\SoFCtMbCtPR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\SoFCtMbCtPR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E8ED8C-1442-447F-8C6B-059D378D1FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA506D96-49CB-4C13-BA28-ACBBE8A2DD91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="23430" windowHeight="15060" activeTab="1" xr2:uid="{5E78EF81-321F-43F5-B343-4E83A6575A8A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{5E78EF81-321F-43F5-B343-4E83A6575A8A}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="SoFCtMbCtPR" sheetId="2" r:id="rId2"/>
+    <sheet name="SoFCtMbCtPR " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -493,11 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DA106A-E484-4E2B-B3F9-91B326CF3E2A}">
-  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -522,13 +521,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ABB53E3-B52E-4F21-A58E-08755890D033}">
-  <sheetPr codeName="Sheet2">
+  <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
